--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ucn2-Crhr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.3617913333333334</v>
+        <v>0.08557100000000001</v>
       </c>
       <c r="H2">
-        <v>1.085374</v>
+        <v>0.256713</v>
       </c>
       <c r="I2">
-        <v>0.04578080100647625</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="J2">
-        <v>0.06509043373192534</v>
+        <v>0.07301011993587267</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.471861</v>
+        <v>0.422869</v>
       </c>
       <c r="N2">
-        <v>1.415583</v>
+        <v>0.845738</v>
       </c>
       <c r="O2">
-        <v>0.1161318617815716</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.1646379375675581</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.170715220338</v>
+        <v>0.036185323199</v>
       </c>
       <c r="R2">
-        <v>1.536436983042</v>
+        <v>0.217111939194</v>
       </c>
       <c r="S2">
-        <v>0.005316609654733736</v>
+        <v>0.06387618749386496</v>
       </c>
       <c r="T2">
-        <v>0.010716354765002</v>
+        <v>0.07301011993587267</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3617913333333334</v>
+        <v>0.2615406666666666</v>
       </c>
       <c r="H3">
-        <v>1.085374</v>
+        <v>0.7846219999999999</v>
       </c>
       <c r="I3">
-        <v>0.04578080100647625</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="J3">
-        <v>0.06509043373192534</v>
+        <v>0.223149378194031</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,33 +620,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.5912875</v>
+        <v>0.422869</v>
       </c>
       <c r="N3">
-        <v>7.182575</v>
+        <v>0.845738</v>
       </c>
       <c r="O3">
-        <v>0.8838681382184285</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.8353620624324419</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.299296693008333</v>
+        <v>0.1105974401726667</v>
       </c>
       <c r="R3">
-        <v>7.79578015805</v>
+        <v>0.6635846410359999</v>
       </c>
       <c r="S3">
-        <v>0.04046419135174252</v>
+        <v>0.1952322709945009</v>
       </c>
       <c r="T3">
-        <v>0.05437407896692334</v>
+        <v>0.223149378194031</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2615406666666666</v>
+        <v>0.121319</v>
       </c>
       <c r="H4">
-        <v>0.7846219999999999</v>
+        <v>0.363957</v>
       </c>
       <c r="I4">
-        <v>0.03309515765745578</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="J4">
-        <v>0.04705418251737255</v>
+        <v>0.1035107073716579</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.471861</v>
+        <v>0.422869</v>
       </c>
       <c r="N4">
-        <v>1.415583</v>
+        <v>0.845738</v>
       </c>
       <c r="O4">
-        <v>0.1161318617815716</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.1646379375675581</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.123410840514</v>
+        <v>0.051302044211</v>
       </c>
       <c r="R4">
-        <v>1.110697564626</v>
+        <v>0.307812265266</v>
       </c>
       <c r="S4">
-        <v>0.003843402274714976</v>
+        <v>0.09056099835888562</v>
       </c>
       <c r="T4">
-        <v>0.007746903563587666</v>
+        <v>0.1035107073716579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.2615406666666666</v>
+        <v>0.5027865</v>
       </c>
       <c r="H5">
-        <v>0.7846219999999999</v>
+        <v>1.005573</v>
       </c>
       <c r="I5">
-        <v>0.03309515765745578</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="J5">
-        <v>0.04705418251737255</v>
+        <v>0.2859886539998959</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,33 +744,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.5912875</v>
+        <v>0.422869</v>
       </c>
       <c r="N5">
-        <v>7.182575</v>
+        <v>0.845738</v>
       </c>
       <c r="O5">
-        <v>0.8838681382184285</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.8353620624324419</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.9392677269416666</v>
+        <v>0.2126128244685</v>
       </c>
       <c r="R5">
-        <v>5.63560636165</v>
+        <v>0.850451297874</v>
       </c>
       <c r="S5">
-        <v>0.02925175538274081</v>
+        <v>0.3753150570097829</v>
       </c>
       <c r="T5">
-        <v>0.03930727895378489</v>
+        <v>0.2859886539998959</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -788,356 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.091943</v>
+        <v>0.3684213333333333</v>
       </c>
       <c r="H6">
-        <v>0.275829</v>
+        <v>1.105264</v>
       </c>
       <c r="I6">
-        <v>0.01163439750796991</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="J6">
-        <v>0.01654160616141831</v>
+        <v>0.3143411404985426</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.471861</v>
+        <v>0.422869</v>
       </c>
       <c r="N6">
-        <v>1.415583</v>
+        <v>0.845738</v>
       </c>
       <c r="O6">
-        <v>0.1161318617815716</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.1646379375675581</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.043384315923</v>
+        <v>0.1557939608053333</v>
       </c>
       <c r="R6">
-        <v>0.390458843307</v>
+        <v>0.934763764832</v>
       </c>
       <c r="S6">
-        <v>0.001351124243307423</v>
+        <v>0.2750154861429657</v>
       </c>
       <c r="T6">
-        <v>0.002723375922470721</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>0.091943</v>
-      </c>
-      <c r="H7">
-        <v>0.275829</v>
-      </c>
-      <c r="I7">
-        <v>0.01163439750796991</v>
-      </c>
-      <c r="J7">
-        <v>0.01654160616141831</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>3.5912875</v>
-      </c>
-      <c r="N7">
-        <v>7.182575</v>
-      </c>
-      <c r="O7">
-        <v>0.8838681382184285</v>
-      </c>
-      <c r="P7">
-        <v>0.8353620624324419</v>
-      </c>
-      <c r="Q7">
-        <v>0.3301937466125</v>
-      </c>
-      <c r="R7">
-        <v>1.981162479675</v>
-      </c>
-      <c r="S7">
-        <v>0.01028327326466249</v>
-      </c>
-      <c r="T7">
-        <v>0.01381823023894758</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>7.0331985</v>
-      </c>
-      <c r="H8">
-        <v>14.066397</v>
-      </c>
-      <c r="I8">
-        <v>0.8899756055540687</v>
-      </c>
-      <c r="J8">
-        <v>0.8435690202413669</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.471861</v>
-      </c>
-      <c r="N8">
-        <v>1.415583</v>
-      </c>
-      <c r="O8">
-        <v>0.1161318617815716</v>
-      </c>
-      <c r="P8">
-        <v>0.1646379375675581</v>
-      </c>
-      <c r="Q8">
-        <v>3.3186920774085</v>
-      </c>
-      <c r="R8">
-        <v>19.912152464451</v>
-      </c>
-      <c r="S8">
-        <v>0.1033545240131756</v>
-      </c>
-      <c r="T8">
-        <v>0.1388834636884243</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>7.0331985</v>
-      </c>
-      <c r="H9">
-        <v>14.066397</v>
-      </c>
-      <c r="I9">
-        <v>0.8899756055540687</v>
-      </c>
-      <c r="J9">
-        <v>0.8435690202413669</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>3.5912875</v>
-      </c>
-      <c r="N9">
-        <v>7.182575</v>
-      </c>
-      <c r="O9">
-        <v>0.8838681382184285</v>
-      </c>
-      <c r="P9">
-        <v>0.8353620624324419</v>
-      </c>
-      <c r="Q9">
-        <v>25.25823785806875</v>
-      </c>
-      <c r="R9">
-        <v>101.032951432275</v>
-      </c>
-      <c r="S9">
-        <v>0.7866210815408932</v>
-      </c>
-      <c r="T9">
-        <v>0.7046855565529426</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G10">
-        <v>0.1542133333333333</v>
-      </c>
-      <c r="H10">
-        <v>0.46264</v>
-      </c>
-      <c r="I10">
-        <v>0.01951403827402921</v>
-      </c>
-      <c r="J10">
-        <v>0.02774475734791688</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.471861</v>
-      </c>
-      <c r="N10">
-        <v>1.415583</v>
-      </c>
-      <c r="O10">
-        <v>0.1161318617815716</v>
-      </c>
-      <c r="P10">
-        <v>0.1646379375675581</v>
-      </c>
-      <c r="Q10">
-        <v>0.07276725768</v>
-      </c>
-      <c r="R10">
-        <v>0.6549053191200001</v>
-      </c>
-      <c r="S10">
-        <v>0.002266201595639858</v>
-      </c>
-      <c r="T10">
-        <v>0.004567839628073388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11">
-        <v>2</v>
-      </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.1542133333333333</v>
-      </c>
-      <c r="H11">
-        <v>0.46264</v>
-      </c>
-      <c r="I11">
-        <v>0.01951403827402921</v>
-      </c>
-      <c r="J11">
-        <v>0.02774475734791688</v>
-      </c>
-      <c r="K11">
-        <v>2</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>3.5912875</v>
-      </c>
-      <c r="N11">
-        <v>7.182575</v>
-      </c>
-      <c r="O11">
-        <v>0.8838681382184285</v>
-      </c>
-      <c r="P11">
-        <v>0.8353620624324419</v>
-      </c>
-      <c r="Q11">
-        <v>0.5538244163333333</v>
-      </c>
-      <c r="R11">
-        <v>3.322946498</v>
-      </c>
-      <c r="S11">
-        <v>0.01724783667838935</v>
-      </c>
-      <c r="T11">
-        <v>0.02317691771984349</v>
+        <v>0.3143411404985426</v>
       </c>
     </row>
   </sheetData>
